--- a/android/assets/flockBlockersExtra/spec.xlsx
+++ b/android/assets/flockBlockersExtra/spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>(Fast Firing)</t>
   </si>
@@ -159,15 +159,9 @@
     <t>X</t>
   </si>
   <si>
-    <t>1 diamond=10000 gold</t>
-  </si>
-  <si>
     <t>1000 diamonds</t>
   </si>
   <si>
-    <t>500 diamonds</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Amount (*1.1 each time up to 3x original amounts, then health x2 (&amp;goldx2.5) until 10x original)</t>
-  </si>
-  <si>
     <t>Dmg</t>
   </si>
   <si>
@@ -256,6 +247,33 @@
   </si>
   <si>
     <t>7+Diamond</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>3000 diamonds</t>
+  </si>
+  <si>
+    <t>10000 diamonds</t>
+  </si>
+  <si>
+    <t>90c/1000 0.09c/dia</t>
+  </si>
+  <si>
+    <t>$5/10000 0.05c/dia</t>
+  </si>
+  <si>
+    <t>$2/3000 0.07c/dia</t>
+  </si>
+  <si>
+    <t>90c/no ads</t>
+  </si>
+  <si>
+    <t>Amount (*1.15 each time up to 3x original amounts, then health x2 (&amp;goldx2.5) until 10x original)</t>
+  </si>
+  <si>
+    <t>1 dia=1000 go, 5000 go=1 dia</t>
   </si>
 </sst>
 </file>
@@ -625,52 +643,70 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2">
+        <v>500</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40500</v>
+      </c>
+      <c r="G2" s="2">
+        <v>121500</v>
+      </c>
+      <c r="H2" s="2">
+        <v>364500</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>32000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>128000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>512000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2048000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -746,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -769,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -790,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
@@ -813,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -834,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -851,50 +887,50 @@
     </row>
     <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>40</v>
@@ -902,16 +938,16 @@
     </row>
     <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -922,16 +958,16 @@
     </row>
     <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -942,16 +978,16 @@
     </row>
     <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -962,16 +998,16 @@
     </row>
     <row r="15" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -982,16 +1018,16 @@
     </row>
     <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1002,16 +1038,16 @@
     </row>
     <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1022,19 +1058,19 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>1</v>

--- a/android/assets/flockBlockersExtra/spec.xlsx
+++ b/android/assets/flockBlockersExtra/spec.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>(Fast Firing)</t>
   </si>
   <si>
-    <t>knife thrower</t>
-  </si>
-  <si>
     <t>bow</t>
   </si>
   <si>
-    <t>assault rifle</t>
-  </si>
-  <si>
     <t>machinegun</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>Microwave emitter</t>
   </si>
   <si>
-    <t>spear thrower</t>
-  </si>
-  <si>
     <t>crossbow</t>
   </si>
   <si>
@@ -57,9 +48,6 @@
     <t>anti-tank rifle</t>
   </si>
   <si>
-    <t>Hand Cannon</t>
-  </si>
-  <si>
     <t>Ion cannon</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
     <t>Artillery</t>
   </si>
   <si>
-    <t>Mortar</t>
-  </si>
-  <si>
-    <t>blunderbuss</t>
-  </si>
-  <si>
     <t>1/s</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>2 bird</t>
   </si>
   <si>
-    <t>dart thrower</t>
-  </si>
-  <si>
     <t>(High Damage)</t>
   </si>
   <si>
@@ -165,15 +144,9 @@
     <t>???</t>
   </si>
   <si>
-    <t>Machine Pistol</t>
-  </si>
-  <si>
     <t>Ballistae</t>
   </si>
   <si>
-    <t>MultiCatapult</t>
-  </si>
-  <si>
     <t>Flock</t>
   </si>
   <si>
@@ -274,6 +247,72 @@
   </si>
   <si>
     <t>1 dia=1000 go, 5000 go=1 dia</t>
+  </si>
+  <si>
+    <t>blowgun</t>
+  </si>
+  <si>
+    <t>shuriken</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>fire bow</t>
+  </si>
+  <si>
+    <t>catapult</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>musket</t>
+  </si>
+  <si>
+    <t>repeatingRifle</t>
+  </si>
+  <si>
+    <t>machinePistol</t>
+  </si>
+  <si>
+    <t>hunting rifle</t>
+  </si>
+  <si>
+    <t>tomahawks</t>
+  </si>
+  <si>
+    <t>military shovel(lol)</t>
+  </si>
+  <si>
+    <t>Blunderbuss</t>
+  </si>
+  <si>
+    <t>grenade</t>
+  </si>
+  <si>
+    <t>rpg</t>
+  </si>
+  <si>
+    <t>9mm pistol</t>
+  </si>
+  <si>
+    <t>triple crossbow</t>
+  </si>
+  <si>
+    <t>auto assault rifle</t>
+  </si>
+  <si>
+    <t>missile launcher</t>
+  </si>
+  <si>
+    <t>50 cal pistol</t>
+  </si>
+  <si>
+    <t>auto shotgun</t>
   </si>
 </sst>
 </file>
@@ -640,439 +679,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2">
         <v>500</v>
       </c>
-      <c r="C2" s="2">
+      <c r="H2" s="2">
         <v>1500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="I2" s="2">
         <v>4500</v>
       </c>
-      <c r="E2" s="2">
+      <c r="J2" s="2">
         <v>13500</v>
       </c>
-      <c r="F2" s="2">
+      <c r="K2" s="2">
         <v>40500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="L2" s="2">
         <v>121500</v>
       </c>
-      <c r="H2" s="2">
+      <c r="M2" s="2">
         <v>364500</v>
       </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
       <c r="N2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18">
+      <c r="L18">
         <v>1</v>
       </c>
     </row>
